--- a/final/snake/donnees(8,8).xlsx
+++ b/final/snake/donnees(8,8).xlsx
@@ -374,13 +374,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>33.4613636363636</v>
+        <v>33.40816326530612</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>14723</v>
+        <v>14733</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -394,13 +394,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>32.0727272727273</v>
+        <v>32.00680272108843</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>14112</v>
+        <v>14115</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -414,13 +414,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>30.8386363636364</v>
+        <v>30.85260770975057</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>13569</v>
+        <v>13606</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -434,13 +434,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>30.4477272727273</v>
+        <v>30.41496598639456</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>13397</v>
+        <v>13413</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>30.2909090909091</v>
+        <v>30.26077097505669</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>13328</v>
+        <v>13345</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>29.6909090909091</v>
+        <v>29.70521541950113</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>13064</v>
+        <v>13100</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>30.3068181818182</v>
+        <v>30.36734693877551</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>13335</v>
+        <v>13392</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>28.6204545454546</v>
+        <v>28.6281179138322</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>12593</v>
+        <v>12625</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -534,13 +534,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>29.2886363636364</v>
+        <v>29.281179138322</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>12887</v>
+        <v>12913</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -554,13 +554,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>27.2772727272727</v>
+        <v>27.22448979591837</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>12002</v>
+        <v>12006</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>0</v>
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>28.4318181818182</v>
+        <v>28.48072562358277</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>12510</v>
+        <v>12560</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>26.1636363636364</v>
+        <v>26.18820861678005</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>11512</v>
+        <v>11549</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
@@ -614,13 +614,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>25.3818181818182</v>
+        <v>25.35147392290249</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>11168</v>
+        <v>11180</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -634,13 +634,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>26.4977272727273</v>
+        <v>26.47619047619047</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>11659</v>
+        <v>11676</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>25.0204545454545</v>
+        <v>24.98866213151927</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>11009</v>
+        <v>11020</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -674,13 +674,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>25.0818181818182</v>
+        <v>25.10884353741497</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>11036</v>
+        <v>11073</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>25.5863636363636</v>
+        <v>25.63718820861678</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>11258</v>
+        <v>11306</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -714,13 +714,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>23.8477272727273</v>
+        <v>23.89115646258503</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>10493</v>
+        <v>10536</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>22.8840909090909</v>
+        <v>22.92517006802721</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>10069</v>
+        <v>10110</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>22.1477272727273</v>
+        <v>22.1859410430839</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>9745</v>
+        <v>9784</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>23.3136363636364</v>
+        <v>23.31972789115646</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>10258</v>
+        <v>10284</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>21.1568181818182</v>
+        <v>21.12698412698413</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>9309</v>
+        <v>9317</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>21.6386363636364</v>
+        <v>21.59863945578231</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>9521</v>
+        <v>9525</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>20.6159090909091</v>
+        <v>20.61451247165533</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>9071</v>
+        <v>9091</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>21.1318181818182</v>
+        <v>21.09297052154195</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>9298</v>
+        <v>9302</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>20.5181818181818</v>
+        <v>20.50340136054422</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>9028</v>
+        <v>9042</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -894,13 +894,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>19.3636363636364</v>
+        <v>19.34467120181406</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>8520</v>
+        <v>8531</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -914,13 +914,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>19.2954545454546</v>
+        <v>19.3015873015873</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>8490</v>
+        <v>8512</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>18.7909090909091</v>
+        <v>18.79591836734694</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>8268</v>
+        <v>8289</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -954,13 +954,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>17.6568181818182</v>
+        <v>17.68934240362812</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>7769</v>
+        <v>7801</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>16.8068181818182</v>
+        <v>16.82539682539683</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>7395</v>
+        <v>7420</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -994,13 +994,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>17.2613636363636</v>
+        <v>17.28571428571428</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>7595</v>
+        <v>7623</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>0</v>
@@ -1014,13 +1014,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>15.8181818181818</v>
+        <v>15.80272108843537</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>6960</v>
+        <v>6969</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>16.0045454545455</v>
+        <v>15.97278911564626</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>7042</v>
+        <v>7044</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>15.4613636363636</v>
+        <v>15.48299319727891</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>6803</v>
+        <v>6828</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>14.2840909090909</v>
+        <v>14.26077097505669</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>6285</v>
+        <v>6289</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>0</v>
@@ -1094,13 +1094,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>14.5386363636364</v>
+        <v>14.5124716553288</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>6397</v>
+        <v>6400</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>14.0340909090909</v>
+        <v>14.01587301587302</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>6175</v>
+        <v>6181</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>12.8318181818182</v>
+        <v>12.83673469387755</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>5646</v>
+        <v>5661</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>0</v>
@@ -1154,13 +1154,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>12.8386363636364</v>
+        <v>12.85260770975057</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5649</v>
+        <v>5668</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>0</v>
@@ -1174,13 +1174,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>12.9159090909091</v>
+        <v>12.9297052154195</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>5683</v>
+        <v>5702</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>12.1136363636364</v>
+        <v>12.10884353741497</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>11.7659090909091</v>
+        <v>11.77324263038549</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>5177</v>
+        <v>5192</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>11.0477272727273</v>
+        <v>11.02947845804989</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>4861</v>
+        <v>4864</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>4400</v>
+        <v>4410</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>10.3840909090909</v>
+        <v>10.40136054421769</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>4569</v>
+        <v>4587</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>9.525</v>
+        <v>9.530612244897959</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>4191</v>
+        <v>4203</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>0</v>
@@ -1314,13 +1314,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>9.050000000000001</v>
+        <v>9.031746031746032</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>3982</v>
+        <v>3983</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>8.765909090909091</v>
+        <v>8.750566893424036</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>3857</v>
+        <v>3859</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>7.92954545454546</v>
+        <v>7.945578231292517</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>3489</v>
+        <v>3504</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>7.73863636363636</v>
+        <v>7.73922902494331</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>3405</v>
+        <v>3413</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>7.14318181818182</v>
+        <v>7.147392290249433</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>3143</v>
+        <v>3152</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>6.17954545454546</v>
+        <v>6.192743764172335</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>2719</v>
+        <v>2731</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>0</v>
@@ -1434,13 +1434,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>6.05</v>
+        <v>6.043083900226757</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>5.45</v>
+        <v>5.46031746031746</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>2398</v>
+        <v>2408</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>0</v>
@@ -1474,13 +1474,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>4.91590909090909</v>
+        <v>4.920634920634921</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>2163</v>
+        <v>2170</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>4.64772727272727</v>
+        <v>4.639455782312925</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>0</v>
@@ -1514,13 +1514,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.97954545454545</v>
+        <v>3.981859410430839</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>1751</v>
+        <v>1756</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>3.48409090909091</v>
+        <v>3.482993197278911</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>0</v>
@@ -1554,13 +1554,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>2.99772727272727</v>
+        <v>3.002267573696145</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>0</v>
@@ -1574,13 +1574,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>2.48181818181818</v>
+        <v>2.478458049886621</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>0</v>
@@ -1594,13 +1594,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1.99545454545455</v>
+        <v>1.997732426303855</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>0</v>
@@ -1614,13 +1614,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1.48636363636364</v>
+        <v>1.485260770975057</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>0</v>
